--- a/原始数据模板.xlsx
+++ b/原始数据模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchxu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\宝钢\GUI_Coal_Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="66">
   <si>
     <t>序号</t>
   </si>
@@ -1220,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AD82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2576,6 +2576,3546 @@
         <v>0.78</v>
       </c>
     </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1985</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H23" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I23" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M23" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R23" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T23" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1986</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H24" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I24" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M24" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R24" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T24" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1987</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H25" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I25" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M25" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R25" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T25" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1988</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H26" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I26" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M26" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R26" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S26" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T26" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1989</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H27" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I27" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M27" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R27" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T27" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1990</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H28" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I28" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M28" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R28" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T28" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1991</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H29" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I29" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K29" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M29" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R29" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T29" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1992</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H30" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I30" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M30" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R30" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T30" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1993</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H31" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I31" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K31" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M31" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R31" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T31" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1994</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H32" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I32" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M32" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R32" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T32" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1995</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H33" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I33" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M33" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R33" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T33" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1996</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H34" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I34" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M34" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R34" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T34" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1997</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H35" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I35" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M35" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R35" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T35" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1998</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H36" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I36" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M36" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R36" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T36" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1999</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H37" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I37" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M37" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N37" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R37" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T37" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H38" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I38" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M38" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N38" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R38" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T38" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H39" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I39" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M39" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N39" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R39" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T39" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H40" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I40" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M40" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N40" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R40" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S40" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T40" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H41" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I41" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M41" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N41" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R41" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T41" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H42" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I42" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M42" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N42" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R42" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S42" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T42" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H43" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I43" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M43" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R43" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T43" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H44" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I44" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M44" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N44" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R44" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S44" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T44" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H45" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I45" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M45" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N45" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R45" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T45" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H46" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I46" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M46" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R46" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S46" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T46" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H47" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I47" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M47" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N47" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R47" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T47" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H48" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I48" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M48" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N48" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R48" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T48" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H49" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I49" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M49" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R49" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S49" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T49" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H50" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I50" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K50" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M50" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N50" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R50" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S50" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T50" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H51" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I51" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K51" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L51" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M51" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N51" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R51" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S51" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T51" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V51" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H52" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I52" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K52" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L52" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M52" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N52" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R52" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T52" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V52" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H53" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I53" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K53" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L53" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M53" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N53" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R53" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T53" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H54" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I54" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K54" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L54" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M54" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N54" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R54" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S54" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T54" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H55" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I55" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K55" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L55" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M55" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N55" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R55" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S55" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T55" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H56" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I56" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K56" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L56" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M56" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N56" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R56" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S56" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T56" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="H57" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="I57" s="1">
+        <v>76.2</v>
+      </c>
+      <c r="K57" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="L57" s="1">
+        <v>21.75</v>
+      </c>
+      <c r="M57" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="N57" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="R57" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="S57" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T57" s="1">
+        <v>18.59</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0.97300000000000009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1995</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H58" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I58" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K58" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L58" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M58" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N58" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O58" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R58" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T58" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U58" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V58" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1996</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H59" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I59" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K59" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L59" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M59" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N59" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O59" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R59" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T59" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U59" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V59" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1997</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H60" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I60" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K60" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L60" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M60" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N60" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O60" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R60" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S60" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T60" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U60" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V60" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1998</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H61" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I61" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K61" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L61" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M61" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N61" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O61" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R61" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T61" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U61" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V61" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1999</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H62" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I62" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K62" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L62" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M62" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N62" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O62" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R62" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T62" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U62" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V62" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H63" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I63" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K63" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L63" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M63" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N63" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O63" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R63" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T63" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U63" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V63" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H64" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I64" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K64" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L64" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M64" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N64" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O64" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R64" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T64" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U64" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V64" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H65" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I65" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K65" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L65" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M65" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N65" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O65" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R65" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T65" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U65" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V65" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H66" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I66" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K66" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L66" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M66" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N66" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O66" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R66" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T66" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U66" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V66" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H67" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I67" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K67" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L67" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M67" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N67" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O67" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R67" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T67" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U67" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V67" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H68" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I68" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K68" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L68" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M68" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N68" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O68" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R68" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T68" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U68" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V68" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H69" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I69" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K69" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L69" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M69" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N69" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O69" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R69" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S69" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T69" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U69" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V69" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H70" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I70" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K70" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L70" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M70" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N70" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O70" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R70" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T70" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U70" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V70" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H71" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I71" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K71" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L71" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M71" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N71" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O71" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R71" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T71" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U71" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V71" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H72" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I72" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K72" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L72" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M72" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N72" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O72" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R72" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T72" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U72" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V72" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H73" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I73" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K73" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L73" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M73" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N73" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O73" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R73" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T73" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U73" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V73" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H74" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I74" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K74" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L74" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M74" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N74" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O74" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R74" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T74" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U74" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V74" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H75" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I75" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K75" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L75" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M75" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N75" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O75" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R75" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T75" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U75" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V75" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2013</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H76" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I76" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K76" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L76" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M76" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N76" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O76" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R76" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T76" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U76" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V76" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H77" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I77" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K77" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L77" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M77" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N77" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O77" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R77" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T77" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U77" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V77" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H78" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I78" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K78" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L78" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M78" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N78" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O78" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R78" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T78" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U78" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V78" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2016</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H79" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I79" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K79" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L79" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M79" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N79" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O79" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R79" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T79" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U79" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V79" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H80" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I80" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K80" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L80" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M80" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N80" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O80" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R80" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T80" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U80" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V80" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H81" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I81" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K81" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L81" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M81" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N81" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O81" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R81" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T81" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U81" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V81" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="H82" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I82" s="1">
+        <v>73.5</v>
+      </c>
+      <c r="K82" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="L82" s="1">
+        <v>29.34</v>
+      </c>
+      <c r="M82" s="1">
+        <v>75.16</v>
+      </c>
+      <c r="N82" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="O82" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R82" s="1">
+        <v>10.54</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T82" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="U82" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="V82" s="1">
+        <v>1.3090000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
